--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>git push origin master</t>
+  </si>
+  <si>
+    <t>git push origin padma</t>
+  </si>
+  <si>
+    <t>git push origin branchname</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git commit -m "[descriptive message]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git branch -d [branch-name]</t>
   </si>
 </sst>
 </file>
@@ -900,14 +915,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -949,21 +964,21 @@
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,15 +1014,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -1065,12 +1080,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>26</v>

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -209,6 +209,30 @@
   </si>
   <si>
     <t xml:space="preserve"> git branch -d [branch-name]</t>
+  </si>
+  <si>
+    <t>ddhhdhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git add</t>
+  </si>
+  <si>
+    <t>git add *.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git commit -m "added all text files"</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git push origin &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git branch -d padma1</t>
+  </si>
+  <si>
+    <t>git branch &lt;beanch name&gt;</t>
   </si>
 </sst>
 </file>
@@ -916,7 +940,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,45 +994,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -1058,12 +1082,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>56</v>
@@ -1074,7 +1098,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>26</v>
@@ -1088,7 +1112,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -1121,7 +1145,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve"> git branch -d padma1</t>
-  </si>
-  <si>
-    <t>git branch &lt;beanch name&gt;</t>
   </si>
 </sst>
 </file>
@@ -798,7 +795,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +937,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,12 +1079,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>56</v>
@@ -1145,7 +1142,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -145,9 +145,6 @@
     <t>You can combine both downloading/fetching changes and merging those changes into your local repository with one git command.</t>
   </si>
   <si>
-    <t>How do you get a remote branch that you don’t have onto your local computer.</t>
-  </si>
-  <si>
     <t>How do you make a branch.</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t xml:space="preserve"> git branch -d [branch-name]</t>
   </si>
   <si>
-    <t>ddhhdhs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> git add</t>
   </si>
   <si>
@@ -230,6 +224,29 @@
   </si>
   <si>
     <t xml:space="preserve"> git branch -d padma1</t>
+  </si>
+  <si>
+    <t>git push origin :&lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git push origin :padma1</t>
+  </si>
+  <si>
+    <t>git checkout master
+Switched to branch 'master'
+$ git merge iss53</t>
+  </si>
+  <si>
+    <t>git push -u origin &lt;branchname&gt;</t>
+  </si>
+  <si>
+    <t>git push -u origin &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How do you get a remote branch that you don’t have onto your local computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -936,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,10 +969,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -963,10 +980,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -974,10 +991,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -985,10 +1002,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +1013,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1007,10 +1024,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
@@ -1018,10 +1035,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1029,10 +1046,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1040,114 +1057,102 @@
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -247,6 +247,20 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>git clone -b &lt;branch&gt; &lt;remote_repo&gt;</t>
+  </si>
+  <si>
+    <t>git clone -b my-branch git@github.com:user/myproject.git</t>
+  </si>
+  <si>
+    <t>git checkout to &lt;local branch&gt;
+git pull origin &lt;remote branch&gt;</t>
+  </si>
+  <si>
+    <t>git checkout branch2
+git pull origin branch1</t>
   </si>
 </sst>
 </file>
@@ -953,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1063,12 +1077,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -1077,12 +1095,16 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1150,11 +1172,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FileSystemNav" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="150">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -261,13 +261,690 @@
   <si>
     <t>git checkout branch2
 git pull origin branch1</t>
+  </si>
+  <si>
+    <t>heroku create  heroku git:remote -a falling-wind-1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push heroku master  </t>
+  </si>
+  <si>
+    <t>git push heroku yourbranch:master</t>
+  </si>
+  <si>
+    <t>Document type declaration tag or element.</t>
+  </si>
+  <si>
+    <t>The actual HTML tag or element.</t>
+  </si>
+  <si>
+    <t>The head tag or element.</t>
+  </si>
+  <si>
+    <t>The body tag or element.</t>
+  </si>
+  <si>
+    <t>Title tag or element.</t>
+  </si>
+  <si>
+    <t>Link tags with their associated attributes.</t>
+  </si>
+  <si>
+    <t>HEAD TAG</t>
+  </si>
+  <si>
+    <t>FOUR CORE COMPONENTS/ELEMENTS</t>
+  </si>
+  <si>
+    <t>BODY TAGS</t>
+  </si>
+  <si>
+    <t>Various sized heading tags or elements (sizes 1 to 6).</t>
+  </si>
+  <si>
+    <t>Div tags or elements with their associated attributes.</t>
+  </si>
+  <si>
+    <t>Image tag or element their associated attributes.</t>
+  </si>
+  <si>
+    <t>Script tag or element their associated attributes.</t>
+  </si>
+  <si>
+    <t>Declaring variables to capture data.</t>
+  </si>
+  <si>
+    <t>Writing/defining functions in two different ways so actions can be performed on data and returning values if desired. These two different ways can be written as:</t>
+  </si>
+  <si>
+    <t>a function declaration (either anonymous or named function).</t>
+  </si>
+  <si>
+    <t>an anonymous function expression (assigning an anonymous function to a variable).</t>
+  </si>
+  <si>
+    <t>Properly load Javascript code for a web page either through:</t>
+  </si>
+  <si>
+    <r>
+      <t>VanillaJS (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.onload()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) or</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jQuery (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ready()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Why one is better than the other.</t>
+  </si>
+  <si>
+    <t>Using ways to store data of various types (“strings”, numbers, boolean - true/false):</t>
+  </si>
+  <si>
+    <t>Using arrays to store data, which are essentially an ordered lists.</t>
+  </si>
+  <si>
+    <t>Using Javascript objects to store data, which are basically unordered lists.</t>
+  </si>
+  <si>
+    <t>Using arrays to store Javascript objects so you can store more data in a single go.</t>
+  </si>
+  <si>
+    <t>Creating flow control to execute specific lines of code according to conditions such as:</t>
+  </si>
+  <si>
+    <r>
+      <t>Using if...else statements to execute pieces of code if a specified condition is evaluated to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Using switch...case statements to evaluate an expression and matching that expression’s value to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> clause and executing statements associated with that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Use comparison operators to compare values which evaluate to true, such as:</t>
+  </si>
+  <si>
+    <t>Strict Equal (===).</t>
+  </si>
+  <si>
+    <t>String note equal (!==).</t>
+  </si>
+  <si>
+    <t>Great Than or Greater Than or Equal To (&gt; or &gt;=).</t>
+  </si>
+  <si>
+    <t>Less Than or Less Than or Equal To (&lt; or &lt;=).</t>
+  </si>
+  <si>
+    <t>Use arithmetic operators to perform simple arithmetic. These arithmetic operators are:</t>
+  </si>
+  <si>
+    <r>
+      <t>( + ) Addition between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data types.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>( - ) Subtraction between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data types.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>( * ) Multiplication of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data types.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>( / ) Division of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data types.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>( %) Modulus which return the remainder of a Division operation between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data types.</t>
+    </r>
+  </si>
+  <si>
+    <t>( ++ ) Incrementor</t>
+  </si>
+  <si>
+    <t>( -- ) Decrementor</t>
+  </si>
+  <si>
+    <t>Using iterators to loop through arrays to access elements containing pieces of data.</t>
+  </si>
+  <si>
+    <t>Creating/using VanillaJS (plain Javascript) event listeners to allow interaction with a web page.</t>
+  </si>
+  <si>
+    <t>using jQuery as an external library to more easily create event listeners such as a click or hover event.</t>
+  </si>
+  <si>
+    <t>Using VanillaJS (plain Javascript) to traverse the Document Object Model (DOM).</t>
+  </si>
+  <si>
+    <t>Using jQuery as an external library to easily traverse the DOM.</t>
+  </si>
+  <si>
+    <t>Using Vanilla JS (plain Javascript) to manipulate the DOM.</t>
+  </si>
+  <si>
+    <t>Using jQuery as an external library to manipulate the DOM.</t>
+  </si>
+  <si>
+    <t>Using Vanilla JS (plain Javascript) to apply attributes and styling to DOM elements.</t>
+  </si>
+  <si>
+    <t>Using jQuery as an external library to more easily apply attributes and styling to DOM elements.</t>
+  </si>
+  <si>
+    <t>Using callback functions to perform asynchronous tasks. These callbacks can be in the form of:</t>
+  </si>
+  <si>
+    <t>Anonymous functions.</t>
+  </si>
+  <si>
+    <t>Function expressions (assigning variables to function declarations).</t>
+  </si>
+  <si>
+    <t>index.php composer.json</t>
+  </si>
+  <si>
+    <t>&lt;?php include_once("index.html"); ?&gt;</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <r>
+      <t>Create a reference to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> database so we can store data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Save data to our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> database using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.push()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Listen to your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> database when your data changes with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.on(“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>”, callBack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Listen to your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> database when a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>new child</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is added with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.on(“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>child_added</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>”, callBack).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Display your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>jQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> in the DOM.</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Programming Interface - Consuming</t>
+  </si>
+  <si>
+    <r>
+      <t>jQuery.ajax() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> $.ajax()</t>
+    </r>
+  </si>
+  <si>
+    <t>Javascript Basics</t>
+  </si>
+  <si>
+    <t>HTML Basics</t>
+  </si>
+  <si>
+    <t>Heroku - App Deployment</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <t>File System Navigation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +983,82 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19.25"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -327,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -470,21 +1223,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -502,12 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,12 +1426,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,141 +1873,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="60">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -965,228 +2025,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" s="27" customFormat="1" ht="12.75">
+      <c r="A2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:3" ht="25.5">
+      <c r="A3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:3" ht="25.5">
+      <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="8" spans="1:3" ht="38.25">
+      <c r="A8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:3" ht="60">
+      <c r="A11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:3" ht="63.75">
+      <c r="A12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:3" ht="60">
+      <c r="A18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="39"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1194,88 +2264,743 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="54">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="B5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="34.5">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="34.5">
+      <c r="A12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="34.5">
+      <c r="A13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="34.5">
+      <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25">
+      <c r="A4" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:3" ht="86.25">
+      <c r="A5" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:3" ht="51.75">
+      <c r="A8" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" ht="34.5">
+      <c r="A9" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+    </row>
+    <row r="10" spans="1:3" ht="17.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25">
+      <c r="A11" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25">
+      <c r="A12" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14" spans="1:3" ht="51.75">
+      <c r="A14" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+    </row>
+    <row r="17" spans="1:3" ht="51.75">
+      <c r="A17" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+    </row>
+    <row r="18" spans="1:3" ht="51.75">
+      <c r="A18" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3" ht="51.75">
+      <c r="A19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="1:3" ht="51.75">
+      <c r="A21" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" ht="86.25">
+      <c r="A22" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" ht="51.75">
+      <c r="A23" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+    </row>
+    <row r="27" spans="1:3" ht="34.5">
+      <c r="A27" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+    </row>
+    <row r="28" spans="1:3" ht="34.5">
+      <c r="A28" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="1:3" ht="51.75">
+      <c r="A29" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:3" ht="34.5">
+      <c r="A31" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" ht="34.5">
+      <c r="A32" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="1:3" ht="34.5">
+      <c r="A33" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+    </row>
+    <row r="35" spans="1:3" ht="51.75">
+      <c r="A35" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25">
+      <c r="A36" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.25">
+      <c r="A37" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="1:3" ht="51.75">
+      <c r="A38" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="1:3" ht="51.75">
+      <c r="A39" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="1:3" ht="51.75">
+      <c r="A41" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+    </row>
+    <row r="42" spans="1:3" ht="51.75">
+      <c r="A42" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" spans="1:3" ht="34.5">
+      <c r="A44" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="1:3" ht="34.5">
+      <c r="A45" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+    </row>
+    <row r="47" spans="1:3" ht="34.5">
+      <c r="A47" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+    </row>
+    <row r="48" spans="1:3" ht="51.75">
+      <c r="A48" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49" spans="1:3" ht="17.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+    </row>
+    <row r="50" spans="1:3" ht="51.75">
+      <c r="A50" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+    </row>
+    <row r="51" spans="1:3" ht="51.75">
+      <c r="A51" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+    </row>
+    <row r="52" spans="1:3" ht="17.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+    </row>
+    <row r="53" spans="1:3" ht="17.25">
+      <c r="A53" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+    </row>
+    <row r="54" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A54" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25">
+      <c r="A1" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="63"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:3" ht="51.75">
+      <c r="A4" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:3" ht="51.75">
+      <c r="A5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:3" ht="69">
+      <c r="A6" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:3" ht="86.25">
+      <c r="A7" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A8" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FileSystemNav" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -938,6 +938,39 @@
   </si>
   <si>
     <t>File System Navigation</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;Train Schedule&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="assets/css/trainSchedule.css"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href=&lt;css file name&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt; &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;&lt;/h1&gt;&lt;h2&gt;&lt;/h2&gt;&lt;h3&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;/div&gt;&lt;top&gt; &lt;right&gt; &lt;bottom&gt;&lt;left&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1448,15 +1481,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1476,15 +1500,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1512,26 +1527,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1550,6 +1547,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,19 +1605,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,20 +1921,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2039,214 +2073,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" ht="12.75">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2" spans="1:3" s="24" customFormat="1" ht="12.75">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25.5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="38.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="63.75">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9"/>
@@ -2278,20 +2312,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2324,7 +2358,7 @@
       <c r="B5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2338,11 +2372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2353,20 +2387,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2381,28 +2415,36 @@
       <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
@@ -2412,19 +2454,27 @@
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="34.5">
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60">
       <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
@@ -2437,28 +2487,34 @@
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="34.5">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="34.5">
       <c r="A14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="35.25" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="6"/>
     </row>
   </sheetData>
@@ -2466,6 +2522,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2483,362 +2541,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="17.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" ht="86.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" ht="51.75">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" ht="34.5">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3" ht="17.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3" ht="17.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:3" ht="17.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3" ht="51.75">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3" ht="51.75">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3" ht="51.75">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3" ht="51.75">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3" ht="51.75">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3" ht="86.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3" ht="51.75">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:3" ht="34.5">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:3" ht="34.5">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
     </row>
     <row r="29" spans="1:3" ht="51.75">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3" ht="34.5">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
     </row>
     <row r="32" spans="1:3" ht="34.5">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
     </row>
     <row r="33" spans="1:3" ht="34.5">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="35" spans="1:3" ht="51.75">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3" ht="17.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="1:3" ht="17.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3" ht="51.75">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3" ht="51.75">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40" spans="1:3" ht="17.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:3" ht="51.75">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:3" ht="51.75">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3" ht="34.5">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:3" ht="34.5">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:3" ht="17.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:3" ht="34.5">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3" ht="51.75">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="1:3" ht="17.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
     </row>
     <row r="50" spans="1:3" ht="51.75">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
     </row>
     <row r="51" spans="1:3" ht="51.75">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
     </row>
     <row r="52" spans="1:3" ht="17.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3" ht="17.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
     </row>
     <row r="54" spans="1:3" ht="35.25" thickBot="1">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2864,59 +2922,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2930,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -2940,62 +2998,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="51.75">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" ht="51.75">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3" ht="69">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" ht="86.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" ht="35.25" thickBot="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/EvaluateYourSelf.xlsx
+++ b/EvaluateYourSelf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="11475" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="FileSystemNav" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
   <si>
     <t xml:space="preserve">Creating files </t>
   </si>
@@ -964,13 +964,160 @@
     <t>&lt;body&gt; &lt;/body&gt;</t>
   </si>
   <si>
-    <t>&lt;h1&gt;&lt;/h1&gt;&lt;h2&gt;&lt;/h2&gt;&lt;h3&gt;&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;&lt;/div&gt;&lt;top&gt; &lt;right&gt; &lt;bottom&gt;&lt;left&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="" /&gt;</t>
+    <t>&lt;div&gt;This is a div element&lt;/div&gt;
+&lt;div&gt; is a tag. An opening and closing tag makes an element
+An attribute is a piece of code attached to a tag which supplies additional information
+&lt;tag attribute="value"&gt;Element content&lt;/tag&gt;</t>
+  </si>
+  <si>
+    <t>h1, h2, h3, h4, h5, h6</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Main Header &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>div, align,dl, id, style, title, href, src, height, width</t>
+  </si>
+  <si>
+    <t>&lt;img src="w3schools.jpg" width="104px" height="142px"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script src="URL" type="text/javascript"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;script src="assets/js/trainSchedule.js"&gt;&lt;/script&gt; </t>
+  </si>
+  <si>
+    <t>var &lt;variable name&gt;</t>
+  </si>
+  <si>
+    <t>var x= 5, y = true, z = "test", a =[], b = {};</t>
+  </si>
+  <si>
+    <t>function nameOfFunction(listOfVariableNames) {
+  function code should be written here
+}
+nameOfFunction = function (listOfVariableNames) {
+  function code should be written here
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$.ajax({
+  url: "test.html",
+  context: document.body
+}).done(function() {
+  $( this ).addClass( "done" );
+});</t>
+  </si>
+  <si>
+    <t>$.ajax({url: queryURL, method: 'GET'}).done(function(response) {}</t>
+  </si>
+  <si>
+    <t>jQuery.ajax( url [, settings ] )</t>
+  </si>
+  <si>
+    <t>var trainData = new Firebase("https://trainsched20160618.firebaseio.com/");</t>
+  </si>
+  <si>
+    <t>trainData.push(newTrainInfo);</t>
+  </si>
+  <si>
+    <t>var dbname = new Firebase(url);</t>
+  </si>
+  <si>
+    <t>dbname.push(newTrainInfo);</t>
+  </si>
+  <si>
+    <t>dbname.on("child_added", function(childSnapshot, prevChildKey){})</t>
+  </si>
+  <si>
+    <t>dbname.on(val,  function(){})</t>
+  </si>
+  <si>
+    <r>
+      <t>Listen to your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Firebase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> database when a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>new child</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is added with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.on(“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>child_removed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>”, callBack).</t>
+    </r>
+  </si>
+  <si>
+    <t>activeVisitors.on('child_removed', function (snapshot) {
+  $('#active-visitor' + snapshot.name()).remove(); 
+});</t>
+  </si>
+  <si>
+    <t>dbname.on("child_removed", function(childSnapshot){})</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1545,8 +1692,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1605,7 +1750,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1909,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1921,11 +2065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
@@ -2073,11 +2217,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" s="24" customFormat="1" ht="12.75">
       <c r="A2" s="25" t="s">
@@ -2312,11 +2456,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
@@ -2375,23 +2519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="18" t="s">
@@ -2488,34 +2632,44 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="45">
+        <v>159</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="180">
       <c r="A13" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="34.5">
+        <v>161</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="35.25" thickBot="1">
+        <v>163</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60.75" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2531,21 +2685,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
@@ -2563,340 +2718,346 @@
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" ht="17.25">
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:3" ht="86.25">
+      <c r="B4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="165">
       <c r="A5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="34.5">
       <c r="A7" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="51.75">
       <c r="A8" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="34.5">
       <c r="A9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="51.75">
       <c r="A14" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="34.5">
       <c r="A16" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="51.75">
       <c r="A17" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="51.75">
       <c r="A18" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="51.75">
       <c r="A19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="51.75">
       <c r="A21" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="86.25">
       <c r="A22" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="51.75">
       <c r="A23" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="39"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="34.5">
       <c r="A27" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="34.5">
       <c r="A28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="51.75">
       <c r="A29" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="34.5">
       <c r="A31" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="34.5">
       <c r="A32" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="34.5">
       <c r="A33" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="51.75">
       <c r="A35" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="17.25">
       <c r="A36" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="51.75">
       <c r="A38" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="51.75">
       <c r="A39" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="17.25">
       <c r="A40" s="38"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="51.75">
       <c r="A41" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="51.75">
       <c r="A42" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="17.25">
       <c r="A43" s="38"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="34.5">
       <c r="A44" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="34.5">
       <c r="A45" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="17.25">
       <c r="A46" s="38"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="34.5">
       <c r="A47" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="51.75">
       <c r="A48" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="17.25">
       <c r="A49" s="38"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" ht="51.75">
       <c r="A50" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="51.75">
       <c r="A51" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="17.25">
       <c r="A52" s="38"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="17.25">
       <c r="A53" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="35.25" thickBot="1">
       <c r="A54" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2908,27 +3069,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
@@ -2939,42 +3100,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25">
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105">
       <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2986,23 +3138,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
@@ -3017,43 +3171,66 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="51.75">
       <c r="A4" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="51.75">
       <c r="A5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="69">
       <c r="A6" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" ht="86.25">
       <c r="A7" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-    </row>
-    <row r="8" spans="1:3" ht="35.25" thickBot="1">
-      <c r="A8" s="44" t="s">
+      <c r="B7" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" ht="86.25">
+      <c r="A8" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="35.25" thickBot="1">
+      <c r="A9" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
